--- a/mosip_master/xlsx/title.xlsx
+++ b/mosip_master/xlsx/title.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -89,27 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">Titre de femme célibataire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لقب ذكر</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السيدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لقب أنثى</t>
-  </si>
-  <si>
-    <t xml:space="preserve">يغيب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لقب انثى غير متزوجة</t>
   </si>
 </sst>
 </file>
@@ -200,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,10 +198,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -242,17 +217,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,57 +344,6 @@
         <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/mosip_master/xlsx/title.xlsx
+++ b/mosip_master/xlsx/title.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -110,69 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">لقب انثى غير متزوجة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಶ್ರೀ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಪುರುಷ ಶೀರ್ಷಿಕೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಶ್ರೀಮತಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸ್ತ್ರೀ ಶೀರ್ಷಿಕೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಸುಂದರಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ಅವಿವಾಹಿತ ಸ್ತ್ರೀ ಶೀರ್ಷಿಕೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">श्री</t>
-  </si>
-  <si>
-    <t xml:space="preserve">पुरुष शीर्षक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">श्रीमती</t>
-  </si>
-  <si>
-    <t xml:space="preserve">महिला शीर्षक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">कुमारी</t>
-  </si>
-  <si>
-    <t xml:space="preserve">अविवाहित महिला शीर्षक</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திரு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ஆண் தலைப்பு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திருமதி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">பெண் தலைப்பு</t>
-  </si>
-  <si>
-    <t xml:space="preserve">செல்வி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">திருமணமாகாத பெண் தலைப்பு</t>
   </si>
 </sst>
 </file>
@@ -305,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -488,159 +425,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
